--- a/Python/lambor_Inputbox_XZHY.xlsx
+++ b/Python/lambor_Inputbox_XZHY.xlsx
@@ -41,48 +41,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[5]/div/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div/span[1]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div/textarea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[3]/div/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[3]/div[2]/a/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[5]/div[2]/a/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div[2]/a[1]/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div[2]/a/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div[2]/a/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div[2]/a/span</t>
   </si>
 </sst>
 </file>
@@ -413,7 +406,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -444,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -452,39 +445,39 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Python/lambor_Inputbox_XZHY.xlsx
+++ b/Python/lambor_Inputbox_XZHY.xlsx
@@ -25,57 +25,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[3]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[7]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[9]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[10]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[11]/div[1]/textarea</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[1]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tips_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]/div/input</t>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[3]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[5]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[9]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[10]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[11]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[7]/div[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[3]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[5]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div/textarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[3]/div[2]/a/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[5]/div[2]/a/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div[2]/a[1]/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div[2]/a/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div[2]/a/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div[2]/a/span</t>
   </si>
 </sst>
 </file>
@@ -406,7 +402,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,12 +417,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -434,7 +430,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -442,7 +438,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -450,34 +446,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
